--- a/projects/optimTest2a.xlsx
+++ b/projects/optimTest2a.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12060" windowHeight="4560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Y$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3338,11 +3338,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1321">
@@ -4971,17 +4971,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4999,23 +4999,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="22"/>
       <c r="B1" s="27"/>
       <c r="C1" s="22"/>
@@ -5024,7 +5024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>445</v>
       </c>
@@ -5033,7 +5033,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>446</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>479</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>497</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
         <v>499</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>459</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>460</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>481</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="13" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>490</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>491</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>492</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>494</v>
       </c>
@@ -5211,10 +5211,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -5225,7 +5222,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>474</v>
       </c>
@@ -5233,7 +5230,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A23" s="12" t="s">
         <v>470</v>
       </c>
@@ -5244,7 +5241,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5252,7 +5249,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5260,15 +5257,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>1000000000000000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>588</v>
       </c>
@@ -5276,7 +5273,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>583</v>
       </c>
@@ -5284,7 +5281,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>584</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>586</v>
       </c>
@@ -5300,73 +5297,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:5">
+      <c r="B31" s="35"/>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B32" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B33" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B35" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:5" ht="28">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D36" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B38" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="14"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5399,34 +5399,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.44140625" style="1"/>
-    <col min="18" max="18" width="46.109375" style="1" customWidth="1"/>
-    <col min="19" max="21" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="11.5" style="1"/>
+    <col min="18" max="18" width="46.1640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.5" style="1"/>
     <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="23" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5451,16 +5451,16 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-    </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+    </row>
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5473,7 +5473,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:24" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5576,7 +5576,7 @@
       <c r="M5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -5599,7 +5599,7 @@
       <c r="M6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5629,7 +5629,7 @@
       <c r="M7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5668,7 +5668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5695,7 +5695,7 @@
       <c r="M9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5722,7 +5722,7 @@
       <c r="M10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5749,7 +5749,7 @@
       <c r="M11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5776,7 +5776,7 @@
       <c r="M12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5803,7 +5803,7 @@
       <c r="M13" s="3"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5830,7 +5830,7 @@
       <c r="M14" s="3"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5857,7 +5857,7 @@
       <c r="M15" s="3"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15">
       <c r="A16" s="20" t="b">
         <v>1</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="M16" s="3"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -5911,7 +5911,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -5951,7 +5951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -5979,7 +5979,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6007,7 +6007,7 @@
       <c r="M20" s="3"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -6035,7 +6035,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6063,7 +6063,7 @@
       <c r="M22" s="3"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6091,7 +6091,7 @@
       <c r="M23" s="3"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6119,7 +6119,7 @@
       <c r="M24" s="3"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6147,7 +6147,7 @@
       <c r="M25" s="3"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" customFormat="1">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" customFormat="1">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" customFormat="1">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" customFormat="1">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" customFormat="1">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" customFormat="1">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" customFormat="1" ht="15">
       <c r="A32" s="20" t="b">
         <v>0</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="N32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>26</v>
@@ -6352,7 +6352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" customFormat="1" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -6392,7 +6392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -6416,7 +6416,7 @@
       <c r="I35" s="20"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" customFormat="1" ht="15">
       <c r="A36" s="20" t="b">
         <v>0</v>
       </c>
@@ -6436,7 +6436,7 @@
       <c r="I36" s="20"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" customFormat="1" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>26</v>
@@ -6476,7 +6476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" customFormat="1" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -6500,7 +6500,7 @@
       <c r="I38" s="20"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" customFormat="1" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -6524,7 +6524,7 @@
       <c r="I39" s="20"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" customFormat="1" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -6548,7 +6548,7 @@
       <c r="I40" s="20"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" customFormat="1" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6568,7 +6568,7 @@
       <c r="I41" s="20"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" customFormat="1" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>26</v>
@@ -6608,7 +6608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" customFormat="1" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -6632,7 +6632,7 @@
       <c r="I43" s="20"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" customFormat="1" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -6656,7 +6656,7 @@
       <c r="I44" s="20"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" customFormat="1" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -6680,7 +6680,7 @@
       <c r="I45" s="20"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" customFormat="1" ht="15">
       <c r="A46" s="20" t="b">
         <v>0</v>
       </c>
@@ -6700,7 +6700,7 @@
       <c r="I46" s="20"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" customFormat="1" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" customFormat="1" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>26</v>
@@ -6766,7 +6766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" customFormat="1" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -6790,7 +6790,7 @@
       <c r="I49" s="20"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" customFormat="1" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -6814,7 +6814,7 @@
       <c r="I50" s="20"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" customFormat="1" ht="15">
       <c r="A51" s="20"/>
       <c r="B51" s="20" t="s">
         <v>25</v>
@@ -6838,7 +6838,7 @@
       <c r="I51" s="20"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" customFormat="1" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -6862,7 +6862,7 @@
       <c r="I52" s="20"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" customFormat="1" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -6886,7 +6886,7 @@
       <c r="I53" s="20"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" customFormat="1" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -6910,7 +6910,7 @@
       <c r="I54" s="20"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" customFormat="1" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -6934,7 +6934,7 @@
       <c r="I55" s="20"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" customFormat="1" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -6958,7 +6958,7 @@
       <c r="I56" s="20"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" customFormat="1" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -6982,7 +6982,7 @@
       <c r="I57" s="20"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" customFormat="1" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7006,7 +7006,7 @@
       <c r="I58" s="20"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" customFormat="1" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7030,7 +7030,7 @@
       <c r="I59" s="20"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" customFormat="1" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7054,7 +7054,7 @@
       <c r="I60" s="20"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" customFormat="1" ht="15">
       <c r="A61" s="20"/>
       <c r="B61" s="20" t="s">
         <v>25</v>
@@ -7078,7 +7078,7 @@
       <c r="I61" s="20"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" customFormat="1" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7102,7 +7102,7 @@
       <c r="I62" s="20"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" customFormat="1" ht="15">
       <c r="A63" s="20" t="b">
         <v>0</v>
       </c>
@@ -7122,7 +7122,7 @@
       <c r="I63" s="20"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" customFormat="1" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" customFormat="1" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>26</v>
@@ -7188,7 +7188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" customFormat="1" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7212,7 +7212,7 @@
       <c r="I66" s="20"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" customFormat="1" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7236,7 +7236,7 @@
       <c r="I67" s="20"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" customFormat="1" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7260,7 +7260,7 @@
       <c r="I68" s="20"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" customFormat="1" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7284,7 +7284,7 @@
       <c r="I69" s="20"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" customFormat="1" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7308,7 +7308,7 @@
       <c r="I70" s="20"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" customFormat="1" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -7332,7 +7332,7 @@
       <c r="I71" s="20"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" customFormat="1" ht="15">
       <c r="A72" s="20"/>
       <c r="B72" s="20" t="s">
         <v>25</v>
@@ -7356,7 +7356,7 @@
       <c r="I72" s="20"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" customFormat="1" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -7380,7 +7380,7 @@
       <c r="I73" s="20"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" customFormat="1" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -7404,7 +7404,7 @@
       <c r="I74" s="20"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" customFormat="1" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -7428,7 +7428,7 @@
       <c r="I75" s="20"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" customFormat="1" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -7452,7 +7452,7 @@
       <c r="I76" s="20"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" customFormat="1" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -7476,7 +7476,7 @@
       <c r="I77" s="20"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" customFormat="1" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -7500,7 +7500,7 @@
       <c r="I78" s="20"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" customFormat="1" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -7524,7 +7524,7 @@
       <c r="I79" s="20"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" customFormat="1" ht="15">
       <c r="A80" s="20" t="b">
         <v>0</v>
       </c>
@@ -7544,7 +7544,7 @@
       <c r="I80" s="20"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" customFormat="1" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" customFormat="1" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>26</v>
@@ -7610,7 +7610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" customFormat="1" ht="15">
       <c r="A83" s="20" t="b">
         <v>0</v>
       </c>
@@ -7630,7 +7630,7 @@
       <c r="I83" s="20"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" customFormat="1" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>26</v>
@@ -7670,7 +7670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" customFormat="1" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -7694,7 +7694,7 @@
       <c r="I85" s="20"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" customFormat="1" ht="15">
       <c r="A86" s="20"/>
       <c r="B86" s="20" t="s">
         <v>25</v>
@@ -7718,7 +7718,7 @@
       <c r="I86" s="20"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" customFormat="1" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -7742,7 +7742,7 @@
       <c r="I87" s="20"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" customFormat="1" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -7766,7 +7766,7 @@
       <c r="I88" s="20"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" customFormat="1" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -7790,7 +7790,7 @@
       <c r="I89" s="20"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" customFormat="1" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -7814,7 +7814,7 @@
       <c r="I90" s="20"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" customFormat="1" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -7838,7 +7838,7 @@
       <c r="I91" s="20"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" customFormat="1" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -7862,7 +7862,7 @@
       <c r="I92" s="20"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" customFormat="1" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -7886,7 +7886,7 @@
       <c r="I93" s="20"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" customFormat="1" ht="15">
       <c r="A94" s="20" t="b">
         <v>0</v>
       </c>
@@ -7906,7 +7906,7 @@
       <c r="I94" s="20"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" customFormat="1" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" customFormat="1" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" customFormat="1" ht="15">
       <c r="A97" s="20"/>
       <c r="B97" s="20" t="s">
         <v>26</v>
@@ -7998,7 +7998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" customFormat="1" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8022,7 +8022,7 @@
       <c r="I98" s="20"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" customFormat="1" ht="15">
       <c r="A99" s="20"/>
       <c r="B99" s="20" t="s">
         <v>25</v>
@@ -8046,7 +8046,7 @@
       <c r="I99" s="20"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" customFormat="1" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8070,7 +8070,7 @@
       <c r="I100" s="20"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" customFormat="1" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8094,7 +8094,7 @@
       <c r="I101" s="20"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" customFormat="1" ht="15">
       <c r="A102" s="20"/>
       <c r="B102" s="20" t="s">
         <v>25</v>
@@ -8118,7 +8118,7 @@
       <c r="I102" s="20"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" customFormat="1" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8142,7 +8142,7 @@
       <c r="I103" s="20"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" customFormat="1" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8166,7 +8166,7 @@
       <c r="I104" s="20"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" customFormat="1" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8190,7 +8190,7 @@
       <c r="I105" s="20"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" customFormat="1" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8214,7 +8214,7 @@
       <c r="I106" s="20"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" customFormat="1" ht="15">
       <c r="A107" s="20"/>
       <c r="B107" s="20" t="s">
         <v>25</v>
@@ -8238,7 +8238,7 @@
       <c r="I107" s="20"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" customFormat="1" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8262,7 +8262,7 @@
       <c r="I108" s="20"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" customFormat="1" ht="15">
       <c r="A109" s="20" t="b">
         <v>0</v>
       </c>
@@ -8282,7 +8282,7 @@
       <c r="I109" s="20"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" customFormat="1" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" customFormat="1" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>26</v>
@@ -8348,7 +8348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" customFormat="1" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8372,7 +8372,7 @@
       <c r="I112" s="20"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" customFormat="1" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8396,7 +8396,7 @@
       <c r="I113" s="20"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" customFormat="1" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8420,7 +8420,7 @@
       <c r="I114" s="20"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" customFormat="1" ht="15">
       <c r="A115" s="20"/>
       <c r="B115" s="20" t="s">
         <v>25</v>
@@ -8444,7 +8444,7 @@
       <c r="I115" s="20"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" customFormat="1" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -8468,7 +8468,7 @@
       <c r="I116" s="20"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" customFormat="1" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -8492,7 +8492,7 @@
       <c r="I117" s="20"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" customFormat="1" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -8516,7 +8516,7 @@
       <c r="I118" s="20"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" customFormat="1" ht="15">
       <c r="A119" s="20"/>
       <c r="B119" s="20" t="s">
         <v>25</v>
@@ -8540,7 +8540,7 @@
       <c r="I119" s="20"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" customFormat="1" ht="15">
       <c r="A120" s="20" t="b">
         <v>0</v>
       </c>
@@ -8560,7 +8560,7 @@
       <c r="I120" s="20"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" customFormat="1" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" customFormat="1" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>26</v>
@@ -8626,7 +8626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" ht="15">
       <c r="A123" s="20" t="b">
         <v>0</v>
       </c>
@@ -8657,7 +8657,7 @@
       <c r="U123" s="33"/>
       <c r="V123" s="33"/>
     </row>
-    <row r="124" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -8694,7 +8694,7 @@
       <c r="U124" s="33"/>
       <c r="V124" s="33"/>
     </row>
-    <row r="125" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>26</v>
@@ -8740,7 +8740,7 @@
       <c r="U125" s="33"/>
       <c r="V125" s="33"/>
     </row>
-    <row r="126" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8771,7 +8771,7 @@
       <c r="U126" s="33"/>
       <c r="V126" s="33"/>
     </row>
-    <row r="127" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -8808,7 +8808,7 @@
       <c r="U127" s="33"/>
       <c r="V127" s="33"/>
     </row>
-    <row r="128" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>26</v>
@@ -8854,7 +8854,7 @@
       <c r="U128" s="33"/>
       <c r="V128" s="33"/>
     </row>
-    <row r="129" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" ht="15">
       <c r="A129" s="20" t="b">
         <v>0</v>
       </c>
@@ -8885,7 +8885,7 @@
       <c r="U129" s="33"/>
       <c r="V129" s="33"/>
     </row>
-    <row r="130" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -8922,7 +8922,7 @@
       <c r="U130" s="33"/>
       <c r="V130" s="33"/>
     </row>
-    <row r="131" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>26</v>
@@ -8968,7 +8968,7 @@
       <c r="U131" s="33"/>
       <c r="V131" s="33"/>
     </row>
-    <row r="132" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" ht="15">
       <c r="A132" s="20" t="b">
         <v>0</v>
       </c>
@@ -8999,7 +8999,7 @@
       <c r="U132" s="33"/>
       <c r="V132" s="33"/>
     </row>
-    <row r="133" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9036,7 +9036,7 @@
       <c r="U133" s="33"/>
       <c r="V133" s="33"/>
     </row>
-    <row r="134" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>26</v>
@@ -9082,7 +9082,7 @@
       <c r="U134" s="33"/>
       <c r="V134" s="33"/>
     </row>
-    <row r="135" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" customFormat="1">
       <c r="A135" t="b">
         <v>0</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" customFormat="1">
       <c r="B136" t="s">
         <v>26</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" customFormat="1">
       <c r="B137" t="s">
         <v>25</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="O137" s="33"/>
       <c r="P137" s="33"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22">
       <c r="A138" t="b">
         <v>1</v>
       </c>
@@ -9176,7 +9176,7 @@
       <c r="J138"/>
       <c r="K138"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22">
       <c r="A139"/>
       <c r="B139" t="s">
         <v>25</v>
@@ -9203,7 +9203,7 @@
       <c r="J139"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22">
       <c r="A140"/>
       <c r="B140" t="s">
         <v>25</v>
@@ -9228,7 +9228,7 @@
       <c r="J140"/>
       <c r="K140"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22">
       <c r="A141"/>
       <c r="B141" t="s">
         <v>26</v>
@@ -9268,7 +9268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22">
       <c r="A142"/>
       <c r="B142" t="s">
         <v>25</v>
@@ -9293,7 +9293,7 @@
       <c r="J142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22">
       <c r="A143"/>
       <c r="B143" t="s">
         <v>25</v>
@@ -9318,7 +9318,7 @@
       <c r="J143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22">
       <c r="A144"/>
       <c r="B144" t="s">
         <v>25</v>
@@ -9345,7 +9345,7 @@
       <c r="J144"/>
       <c r="K144"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>25</v>
@@ -9396,21 +9396,21 @@
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -9423,7 +9423,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>483</v>
       </c>
@@ -9448,7 +9448,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="15">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -9462,7 +9462,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>579</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>578</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -9515,7 +9515,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -9525,7 +9525,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -9535,7 +9535,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -9545,7 +9545,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -9555,7 +9555,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -9565,15 +9565,15 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" customFormat="1"/>
+    <row r="13" spans="1:9" customFormat="1"/>
+    <row r="14" spans="1:9" customFormat="1">
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" customFormat="1"/>
+    <row r="16" spans="1:9" customFormat="1"/>
+    <row r="17" spans="1:9" customFormat="1"/>
+    <row r="18" spans="1:9">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -9583,7 +9583,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -9593,7 +9593,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -9603,7 +9603,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -9613,7 +9613,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -9623,7 +9623,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9634,7 +9634,7 @@
       <c r="H23"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -9644,7 +9644,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9654,7 +9654,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -9664,7 +9664,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9690,23 +9690,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I341"/>
   <sheetViews>
-    <sheetView topLeftCell="A311" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A311" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -9746,7 +9746,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -9792,7 +9792,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -9907,7 +9907,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -9930,7 +9930,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -9949,7 +9949,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -9970,7 +9970,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -10154,7 +10154,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -10173,7 +10173,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -10334,7 +10334,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -10399,7 +10399,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -10420,7 +10420,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -10512,7 +10512,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -10644,7 +10644,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -10759,7 +10759,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -10847,7 +10847,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -10868,7 +10868,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -11006,7 +11006,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -11052,7 +11052,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -11071,7 +11071,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -11092,7 +11092,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -11117,7 +11117,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -11278,7 +11278,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -11320,7 +11320,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -11341,7 +11341,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -11389,7 +11389,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -11638,7 +11638,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -11887,7 +11887,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -11912,7 +11912,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -11931,7 +11931,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -11952,7 +11952,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -11977,7 +11977,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -12044,7 +12044,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -12067,7 +12067,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -12088,7 +12088,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -12107,7 +12107,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -12132,7 +12132,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -12224,7 +12224,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -12247,7 +12247,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -12270,7 +12270,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -12289,7 +12289,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -12377,7 +12377,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -12400,7 +12400,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -12423,7 +12423,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -12446,7 +12446,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -12492,7 +12492,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -12534,7 +12534,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -12559,7 +12559,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -12651,7 +12651,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -12762,7 +12762,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -12787,7 +12787,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -12808,7 +12808,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -12923,7 +12923,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -13103,7 +13103,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -13145,7 +13145,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -13210,7 +13210,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -13235,7 +13235,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -13281,7 +13281,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -13304,7 +13304,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -13419,7 +13419,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -13461,7 +13461,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -13486,7 +13486,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -13532,7 +13532,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -13578,7 +13578,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -13601,7 +13601,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -13670,7 +13670,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -13712,7 +13712,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -13758,7 +13758,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -13823,7 +13823,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -13846,7 +13846,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -13869,7 +13869,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -13892,7 +13892,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -13934,7 +13934,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -13955,7 +13955,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -13978,7 +13978,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -13997,7 +13997,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -14045,7 +14045,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -14066,7 +14066,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -14091,7 +14091,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -14116,7 +14116,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -14135,7 +14135,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -14160,7 +14160,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -14183,7 +14183,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -14298,7 +14298,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -14363,7 +14363,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -14388,7 +14388,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -14411,7 +14411,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -14480,7 +14480,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -14503,7 +14503,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -14526,7 +14526,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -14591,7 +14591,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -14612,7 +14612,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -14635,7 +14635,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -14658,7 +14658,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -14681,7 +14681,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -14727,7 +14727,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -14796,7 +14796,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -14842,7 +14842,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -14888,7 +14888,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -14911,7 +14911,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -14934,7 +14934,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -14976,7 +14976,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -14997,7 +14997,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -15020,7 +15020,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -15043,7 +15043,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -15066,7 +15066,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -15089,7 +15089,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -15112,7 +15112,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -15204,7 +15204,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -15227,7 +15227,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -15250,7 +15250,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -15342,7 +15342,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -15386,7 +15386,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -15409,7 +15409,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -15478,7 +15478,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -15497,7 +15497,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -15522,7 +15522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -15545,7 +15545,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -15564,7 +15564,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -15583,7 +15583,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -15602,7 +15602,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -15623,7 +15623,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -15646,7 +15646,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -15692,7 +15692,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -15784,7 +15784,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -15807,7 +15807,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -15872,7 +15872,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -15895,7 +15895,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -15914,7 +15914,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -15939,7 +15939,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -15985,7 +15985,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -16031,7 +16031,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -16054,7 +16054,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -16077,7 +16077,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -16100,7 +16100,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -16123,7 +16123,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -16146,7 +16146,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -16188,7 +16188,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -16211,7 +16211,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -16230,7 +16230,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -16251,7 +16251,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -16270,7 +16270,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -16291,7 +16291,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -16310,7 +16310,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -16331,7 +16331,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -16350,7 +16350,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -16392,7 +16392,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -16417,7 +16417,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -16440,7 +16440,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -16463,7 +16463,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -16532,7 +16532,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -16555,7 +16555,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -16620,7 +16620,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -16666,7 +16666,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -16689,7 +16689,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -16712,7 +16712,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -16731,7 +16731,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -16754,7 +16754,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -16802,7 +16802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -16821,7 +16821,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -16846,7 +16846,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -16888,7 +16888,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -16909,7 +16909,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -16930,7 +16930,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -16953,7 +16953,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -16972,7 +16972,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -16991,7 +16991,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -17016,7 +17016,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -17041,7 +17041,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>25</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>25</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>25</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>25</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>25</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>25</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>25</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:9">
       <c r="B337" t="s">
         <v>25</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:9">
       <c r="B338" t="s">
         <v>25</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:9">
       <c r="B339" t="s">
         <v>25</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:9">
       <c r="B340" t="s">
         <v>25</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:9">
       <c r="B341" t="s">
         <v>25</v>
       </c>
@@ -17336,13 +17336,13 @@
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>458</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>450</v>
       </c>
@@ -17397,17 +17397,17 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>475</v>
       </c>
